--- a/medicine/Psychotrope/Grinder_à_herbe/Grinder_à_herbe.xlsx
+++ b/medicine/Psychotrope/Grinder_à_herbe/Grinder_à_herbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grinder_%C3%A0_herbe</t>
+          <t>Grinder_à_herbe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un grinder à herbe (ou grinder à weed ou plus simplement grinder) est un objet cylindrique séparé en deux parties pourvues de dents ou de chevilles pointues alignées de telle sorte que le matériau déposé à l'intérieur soit déchiqueté en faisant pivoter les deux parties.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grinder_%C3%A0_herbe</t>
+          <t>Grinder_à_herbe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet objet est initialement utilisé avec des herbes et des épices pour la cuisine, mais sa fonction a été détournée et il sert aussi à déchiqueter du cannabis[1] pour qu'il soit plus facilement roulé à la main dans un joint qui brûle alors de façon plus uniforme[2]. Ces broyeurs à herbes, généralement en métal ou en plastique, sont commercialisés dans une variété de couleurs et de métaux polis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet objet est initialement utilisé avec des herbes et des épices pour la cuisine, mais sa fonction a été détournée et il sert aussi à déchiqueter du cannabis pour qu'il soit plus facilement roulé à la main dans un joint qui brûle alors de façon plus uniforme. Ces broyeurs à herbes, généralement en métal ou en plastique, sont commercialisés dans une variété de couleurs et de métaux polis.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grinder_%C3%A0_herbe</t>
+          <t>Grinder_à_herbe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains broyeurs ont deux ou trois compartiments au lieu d'un seul, avec un filtre séparant les compartiments inférieurs de ceux qui se trouvent au-dessus, permettant ainsi aux trichomes de cannabis, d'être collectés séparément.
 </t>
